--- a/public/photos/orders.xlsx
+++ b/public/photos/orders.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B2" t="str">
-        <v>1732284128</v>
+        <v>1732523298</v>
       </c>
       <c r="C2" t="str">
         <v>Yervand</v>
@@ -475,19 +475,19 @@
         <v>+37494347407</v>
       </c>
       <c r="G2" t="str">
-        <v>cvbcbcbcvbcvb</v>
+        <v>ываывавымвамвв</v>
       </c>
       <c r="I2" t="str">
-        <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1},{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":1}]</v>
+        <v>[{"id":391,"title":"\u041a\u0430\u043b\u0438\u0444\u043e\u0440\u043d\u0438\u044f \u0441 \u043b\u043e\u0441\u043e\u0441\u0435\u043c","avatar":"uploads\/1732523254_avatar.jpg","images":null,"description":"\u041d\u043e\u0440\u0438, \u0440\u0438\u0441, \u0441\u044b\u0440 \u0442\u0432\u043e\u0440\u043e\u0436\u043d\u044b\u0439, \u043b\u043e\u0441\u043e\u0441\u044c, \u0430\u0432\u043e\u043a\u0430\u0434\u043e, \u043e\u0433\u0443\u0440\u0435\u0446, \u043c\u0430\u0441\u0430\u0433\u043e","category_id":"[60]","blog_id":0,"status":1,"created_at":"2024-11-25T12:27:34.000000Z","updated_at":"2024-11-25T12:27:34.000000Z","important":2,"variants":[{"id":49,"name":"\u0433","value":"250","price":200,"created_at":"2024-11-25T12:27:34.000000Z","updated_at":"2024-11-25T12:27:34.000000Z","product_id":391}],"quantity":27}]</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="L2" t="str">
-        <v>2024-11-22T18:02:08.000000Z</v>
+        <v>2024-11-25T12:28:18.000000Z</v>
       </c>
       <c r="M2" t="str">
-        <v>2024-11-23T08:32:07.000000Z</v>
+        <v>2024-11-25T12:28:18.000000Z</v>
       </c>
       <c r="N2" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -496,18 +496,18 @@
         <v>Russia</v>
       </c>
       <c r="P2">
-        <v>423</v>
+        <v>200</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B3" t="str">
-        <v>1732280626</v>
+        <v>1732284128</v>
       </c>
       <c r="C3" t="str">
         <v>Yervand</v>
@@ -522,19 +522,19 @@
         <v>+37494347407</v>
       </c>
       <c r="G3" t="str">
-        <v>sdcsdsdcsdcsdc</v>
+        <v>cvbcbcbcvbcvb</v>
       </c>
       <c r="I3" t="str">
-        <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
+        <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1},{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":1}]</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3" t="str">
-        <v>2024-11-22T17:03:46.000000Z</v>
+        <v>2024-11-22T18:02:08.000000Z</v>
       </c>
       <c r="M3" t="str">
-        <v>2024-11-23T08:32:14.000000Z</v>
+        <v>2024-11-23T08:32:07.000000Z</v>
       </c>
       <c r="N3" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -543,7 +543,7 @@
         <v>Russia</v>
       </c>
       <c r="P3">
-        <v>223</v>
+        <v>423</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B4" t="str">
-        <v>1732280227</v>
+        <v>1732280626</v>
       </c>
       <c r="C4" t="str">
         <v>Yervand</v>
@@ -569,7 +569,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G4" t="str">
-        <v>sdfvsdfgvsdgfvsd</v>
+        <v>sdcsdsdcsdcsdc</v>
       </c>
       <c r="I4" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -578,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <v>2024-11-22T16:57:07.000000Z</v>
+        <v>2024-11-22T17:03:46.000000Z</v>
       </c>
       <c r="M4" t="str">
-        <v>2024-11-22T14:22:30.000000Z</v>
+        <v>2024-11-23T08:32:14.000000Z</v>
       </c>
       <c r="N4" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B5" t="str">
-        <v>1732280171</v>
+        <v>1732280227</v>
       </c>
       <c r="C5" t="str">
         <v>Yervand</v>
@@ -616,7 +616,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G5" t="str">
-        <v>yujykyukyukuk</v>
+        <v>sdfvsdfgvsdgfvsd</v>
       </c>
       <c r="I5" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -625,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="str">
-        <v>2024-11-22T16:56:11.000000Z</v>
+        <v>2024-11-22T16:57:07.000000Z</v>
       </c>
       <c r="M5" t="str">
-        <v>2024-11-22T16:56:11.000000Z</v>
+        <v>2024-11-22T14:22:30.000000Z</v>
       </c>
       <c r="N5" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -640,15 +640,15 @@
         <v>223</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" t="str">
-        <v>1732280020</v>
+        <v>1732280171</v>
       </c>
       <c r="C6" t="str">
         <v>Yervand</v>
@@ -663,7 +663,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G6" t="str">
-        <v>sxcaszcasdcasd</v>
+        <v>yujykyukyukuk</v>
       </c>
       <c r="I6" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="str">
-        <v>2024-11-22T16:53:40.000000Z</v>
+        <v>2024-11-22T16:56:11.000000Z</v>
       </c>
       <c r="M6" t="str">
-        <v>2024-11-22T16:53:40.000000Z</v>
+        <v>2024-11-22T16:56:11.000000Z</v>
       </c>
       <c r="N6" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B7" t="str">
-        <v>1732279494</v>
+        <v>1732280020</v>
       </c>
       <c r="C7" t="str">
         <v>Yervand</v>
@@ -710,7 +710,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G7" t="str">
-        <v>sxsdaxsdx sd</v>
+        <v>sxcaszcasdcasd</v>
       </c>
       <c r="I7" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="str">
-        <v>2024-11-22T16:44:54.000000Z</v>
+        <v>2024-11-22T16:53:40.000000Z</v>
       </c>
       <c r="M7" t="str">
-        <v>2024-11-22T16:44:54.000000Z</v>
+        <v>2024-11-22T16:53:40.000000Z</v>
       </c>
       <c r="N7" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B8" t="str">
-        <v>1732279419</v>
+        <v>1732279494</v>
       </c>
       <c r="C8" t="str">
         <v>Yervand</v>
@@ -757,7 +757,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G8" t="str">
-        <v>erefererferfer</v>
+        <v>sxsdaxsdx sd</v>
       </c>
       <c r="I8" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -766,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="str">
-        <v>2024-11-22T16:43:39.000000Z</v>
+        <v>2024-11-22T16:44:54.000000Z</v>
       </c>
       <c r="M8" t="str">
-        <v>2024-11-22T16:43:39.000000Z</v>
+        <v>2024-11-22T16:44:54.000000Z</v>
       </c>
       <c r="N8" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B9" t="str">
-        <v>1732279406</v>
+        <v>1732279419</v>
       </c>
       <c r="C9" t="str">
         <v>Yervand</v>
@@ -804,7 +804,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G9" t="str">
-        <v>sdcfvsdcvsdvsdfvsdf</v>
+        <v>erefererferfer</v>
       </c>
       <c r="I9" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -813,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="L9" t="str">
-        <v>2024-11-22T16:43:26.000000Z</v>
+        <v>2024-11-22T16:43:39.000000Z</v>
       </c>
       <c r="M9" t="str">
-        <v>2024-11-22T16:43:26.000000Z</v>
+        <v>2024-11-22T16:43:39.000000Z</v>
       </c>
       <c r="N9" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B10" t="str">
-        <v>1732278847</v>
+        <v>1732279406</v>
       </c>
       <c r="C10" t="str">
         <v>Yervand</v>
@@ -851,7 +851,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G10" t="str">
-        <v>67u6j7uj7uj7j78</v>
+        <v>sdcfvsdcvsdvsdfvsdf</v>
       </c>
       <c r="I10" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="str">
-        <v>2024-11-22T16:34:07.000000Z</v>
+        <v>2024-11-22T16:43:26.000000Z</v>
       </c>
       <c r="M10" t="str">
-        <v>2024-11-22T16:34:07.000000Z</v>
+        <v>2024-11-22T16:43:26.000000Z</v>
       </c>
       <c r="N10" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B11" t="str">
-        <v>1732277481</v>
+        <v>1732278847</v>
       </c>
       <c r="C11" t="str">
         <v>Yervand</v>
@@ -898,7 +898,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G11" t="str">
-        <v>sdfvdvdvdfvdfv</v>
+        <v>67u6j7uj7uj7j78</v>
       </c>
       <c r="I11" t="str">
         <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
@@ -907,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="str">
-        <v>2024-11-22T16:11:21.000000Z</v>
+        <v>2024-11-22T16:34:07.000000Z</v>
       </c>
       <c r="M11" t="str">
-        <v>2024-11-22T16:11:21.000000Z</v>
+        <v>2024-11-22T16:34:07.000000Z</v>
       </c>
       <c r="N11" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -927,46 +927,46 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B12" t="str">
-        <v>1732259408</v>
+        <v>1732277481</v>
       </c>
       <c r="C12" t="str">
-        <v>fghtfghf</v>
+        <v>Yervand</v>
       </c>
       <c r="D12" t="str">
-        <v>fghfghfgh</v>
+        <v>Aghabekyan</v>
       </c>
       <c r="E12" t="str">
-        <v>vip.ervand.77@mail.ru</v>
+        <v>vip.ervand.88@gmail.com</v>
       </c>
       <c r="F12" t="str">
-        <v>+7923333408</v>
+        <v>+37494347407</v>
       </c>
       <c r="G12" t="str">
-        <v>hgvnhgnmhgmnghgh</v>
+        <v>sdfvdvdvdfvdfv</v>
       </c>
       <c r="I12" t="str">
-        <v>[{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":1},{"id":365,"title":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","avatar":"uploads\/1731228946_avatar.jpg","images":null,"description":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":19,"name":"sm","value":"28","price":300,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365},{"id":20,"name":"sm","value":"32","price":400,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365}],"quantity":1}]</v>
+        <v>[{"id":377,"title":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","avatar":"uploads\/1731439258_avatar.jpg","images":null,"description":"\u0410\u0441\u0441\u043e\u0440\u0442\u0438","category_id":"[57]","blog_id":0,"status":1,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","important":2,"blog":null,"variants":[{"id":28,"name":"sm","value":"23","price":223,"created_at":"2024-11-12T23:20:58.000000Z","updated_at":"2024-11-12T23:20:58.000000Z","product_id":377}],"quantity":1}]</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="L12" t="str">
-        <v>2024-11-22T11:10:08.000000Z</v>
+        <v>2024-11-22T16:11:21.000000Z</v>
       </c>
       <c r="M12" t="str">
-        <v>2024-11-22T11:10:08.000000Z</v>
+        <v>2024-11-22T16:11:21.000000Z</v>
       </c>
       <c r="N12" t="str">
-        <v>Yerevan</v>
+        <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
       </c>
       <c r="O12" t="str">
         <v>Russia</v>
       </c>
       <c r="P12">
-        <v>900</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -974,121 +974,121 @@
     </row>
     <row r="13">
       <c r="A13">
+        <v>340</v>
+      </c>
+      <c r="B13" t="str">
+        <v>1732259408</v>
+      </c>
+      <c r="C13" t="str">
+        <v>fghtfghf</v>
+      </c>
+      <c r="D13" t="str">
+        <v>fghfghfgh</v>
+      </c>
+      <c r="E13" t="str">
+        <v>vip.ervand.77@mail.ru</v>
+      </c>
+      <c r="F13" t="str">
+        <v>+7923333408</v>
+      </c>
+      <c r="G13" t="str">
+        <v>hgvnhgnmhgmnghgh</v>
+      </c>
+      <c r="I13" t="str">
+        <v>[{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":1},{"id":365,"title":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","avatar":"uploads\/1731228946_avatar.jpg","images":null,"description":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":19,"name":"sm","value":"28","price":300,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365},{"id":20,"name":"sm","value":"32","price":400,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365}],"quantity":1}]</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2024-11-22T11:10:08.000000Z</v>
+      </c>
+      <c r="M13" t="str">
+        <v>2024-11-22T11:10:08.000000Z</v>
+      </c>
+      <c r="N13" t="str">
+        <v>Yerevan</v>
+      </c>
+      <c r="O13" t="str">
+        <v>Russia</v>
+      </c>
+      <c r="P13">
+        <v>900</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>339</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B14" t="str">
         <v>1732258142</v>
       </c>
-      <c r="C13" t="str">
-        <v>Yervand</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Aghabekyan</v>
-      </c>
-      <c r="E13" t="str">
-        <v>vip.ervand.88@gmail.com</v>
-      </c>
-      <c r="F13" t="str">
-        <v>+37494347407</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="C14" t="str">
+        <v>Yervand</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Aghabekyan</v>
+      </c>
+      <c r="E14" t="str">
+        <v>vip.ervand.88@gmail.com</v>
+      </c>
+      <c r="F14" t="str">
+        <v>+37494347407</v>
+      </c>
+      <c r="G14" t="str">
         <v>sdfgvdsvdvddv</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I14" t="str">
         <v>[{"id":369,"title":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","avatar":"uploads\/1731229315_avatar.jpg","images":null,"description":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","category_id":"[60]","blog_id":65,"status":1,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","important":1,"variants":[{"id":24,"name":"sht","value":"1","price":580,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","product_id":369}],"quantity":1}]</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
         <v>2024-11-22T10:49:02.000000Z</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M14" t="str">
         <v>2024-11-22T10:49:02.000000Z</v>
       </c>
-      <c r="N13" t="str">
-        <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
-      </c>
-      <c r="O13" t="str">
-        <v>Russia</v>
-      </c>
-      <c r="P13">
+      <c r="N14" t="str">
+        <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
+      </c>
+      <c r="O14" t="str">
+        <v>Russia</v>
+      </c>
+      <c r="P14">
         <v>580</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15">
         <v>338</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B15" t="str">
         <v>1732258048</v>
       </c>
-      <c r="C14" t="str">
-        <v>Yervand</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Aghabekyan</v>
-      </c>
-      <c r="E14" t="str">
-        <v>vip.ervand.88@gmail.com</v>
-      </c>
-      <c r="F14" t="str">
-        <v>+37494347407</v>
-      </c>
-      <c r="G14" t="str" xml:space="preserve">
+      <c r="C15" t="str">
+        <v>Yervand</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Aghabekyan</v>
+      </c>
+      <c r="E15" t="str">
+        <v>vip.ervand.88@gmail.com</v>
+      </c>
+      <c r="F15" t="str">
+        <v>+37494347407</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
         <v xml:space="preserve">dsadsads
 dsads</v>
       </c>
-      <c r="I14" t="str">
-        <v>[{"id":369,"title":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","avatar":"uploads\/1731229315_avatar.jpg","images":null,"description":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","category_id":"[60]","blog_id":65,"status":1,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","important":1,"variants":[{"id":24,"name":"sht","value":"1","price":580,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","product_id":369}],"quantity":1}]</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="str">
-        <v>2024-11-22T10:47:28.000000Z</v>
-      </c>
-      <c r="M14" t="str">
-        <v>2024-11-22T10:47:28.000000Z</v>
-      </c>
-      <c r="N14" t="str">
-        <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
-      </c>
-      <c r="O14" t="str">
-        <v>Russia</v>
-      </c>
-      <c r="P14">
-        <v>580</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>337</v>
-      </c>
-      <c r="B15" t="str">
-        <v>1732257718</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Yervand</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Aghabekyan</v>
-      </c>
-      <c r="E15" t="str">
-        <v>vip.ervand.88@gmail.com</v>
-      </c>
-      <c r="F15" t="str">
-        <v>+37494347407</v>
-      </c>
-      <c r="G15" t="str">
-        <v>sdcsdcsdsdsd</v>
-      </c>
       <c r="I15" t="str">
         <v>[{"id":369,"title":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","avatar":"uploads\/1731229315_avatar.jpg","images":null,"description":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","category_id":"[60]","blog_id":65,"status":1,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","important":1,"variants":[{"id":24,"name":"sht","value":"1","price":580,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","product_id":369}],"quantity":1}]</v>
       </c>
@@ -1096,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="L15" t="str">
-        <v>2024-11-22T10:41:58.000000Z</v>
+        <v>2024-11-22T10:47:28.000000Z</v>
       </c>
       <c r="M15" t="str">
-        <v>2024-11-22T10:41:58.000000Z</v>
+        <v>2024-11-22T10:47:28.000000Z</v>
       </c>
       <c r="N15" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B16" t="str">
-        <v>1732257641</v>
+        <v>1732257718</v>
       </c>
       <c r="C16" t="str">
         <v>Yervand</v>
@@ -1134,7 +1134,7 @@
         <v>+37494347407</v>
       </c>
       <c r="G16" t="str">
-        <v>rhgrt5tygh5y</v>
+        <v>sdcsdcsdsdsd</v>
       </c>
       <c r="I16" t="str">
         <v>[{"id":369,"title":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","avatar":"uploads\/1731229315_avatar.jpg","images":null,"description":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","category_id":"[60]","blog_id":65,"status":1,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","important":1,"variants":[{"id":24,"name":"sht","value":"1","price":580,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","product_id":369}],"quantity":1}]</v>
@@ -1143,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="L16" t="str">
-        <v>2024-11-22T10:40:41.000000Z</v>
+        <v>2024-11-22T10:41:58.000000Z</v>
       </c>
       <c r="M16" t="str">
-        <v>2024-11-22T10:40:41.000000Z</v>
+        <v>2024-11-22T10:41:58.000000Z</v>
       </c>
       <c r="N16" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B17" t="str">
-        <v>1732187119</v>
+        <v>1732257641</v>
       </c>
       <c r="C17" t="str">
         <v>Yervand</v>
@@ -1181,19 +1181,19 @@
         <v>+37494347407</v>
       </c>
       <c r="G17" t="str">
-        <v>sdvfcsdvdsvds</v>
+        <v>rhgrt5tygh5y</v>
       </c>
       <c r="I17" t="str">
-        <v>[{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":4}]</v>
+        <v>[{"id":369,"title":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","avatar":"uploads\/1731229315_avatar.jpg","images":null,"description":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","category_id":"[60]","blog_id":65,"status":1,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","important":1,"variants":[{"id":24,"name":"sht","value":"1","price":580,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","product_id":369}],"quantity":1}]</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="L17" t="str">
-        <v>2024-11-21T15:05:19.000000Z</v>
+        <v>2024-11-22T10:40:41.000000Z</v>
       </c>
       <c r="M17" t="str">
-        <v>2024-11-21T15:05:19.000000Z</v>
+        <v>2024-11-22T10:40:41.000000Z</v>
       </c>
       <c r="N17" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -1202,7 +1202,7 @@
         <v>Russia</v>
       </c>
       <c r="P17">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1210,46 +1210,46 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B18" t="str">
-        <v>1732115385</v>
+        <v>1732187119</v>
       </c>
       <c r="C18" t="str">
-        <v>fcgfch</v>
+        <v>Yervand</v>
       </c>
       <c r="D18" t="str">
-        <v>dsf</v>
+        <v>Aghabekyan</v>
       </c>
       <c r="E18" t="str">
-        <v>tigranyan.design@gmail.com</v>
+        <v>vip.ervand.88@gmail.com</v>
       </c>
       <c r="F18" t="str">
-        <v>+37444777344</v>
+        <v>+37494347407</v>
       </c>
       <c r="G18" t="str">
-        <v>hjkjhkhkhkyuy</v>
+        <v>sdvfcsdvdsvds</v>
       </c>
       <c r="I18" t="str">
-        <v>[{"id":367,"title":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","avatar":"uploads\/1731229051_avatar.jpg","images":null,"description":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":21,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","product_id":367}],"quantity":1},{"id":368,"title":"\u0413\u0430\u0439\u0434\u0443\u043b\u044f\u043d\u043e","avatar":"uploads\/1731229095_avatar.jpg","images":null,"description":"\u0413\u0430\u0439\u0434\u0443\u043b\u044f\u043d\u043e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:58:15.000000Z","updated_at":"2024-11-10T12:58:15.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":22,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:58:15.000000Z","updated_at":"2024-11-10T12:58:15.000000Z","product_id":368},{"id":23,"name":"sm","value":"28","price":200,"created_at":"2024-11-10T12:58:15.000000Z","updated_at":"2024-11-10T12:58:15.000000Z","product_id":368}],"quantity":1}]</v>
+        <v>[{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":4}]</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="L18" t="str">
-        <v>2024-11-20T19:09:45.000000Z</v>
+        <v>2024-11-21T15:05:19.000000Z</v>
       </c>
       <c r="M18" t="str">
-        <v>2024-11-20T19:09:45.000000Z</v>
+        <v>2024-11-21T15:05:19.000000Z</v>
       </c>
       <c r="N18" t="str">
-        <v>dfgdgd</v>
+        <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
       </c>
       <c r="O18" t="str">
         <v>Russia</v>
       </c>
       <c r="P18">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1257,46 +1257,46 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B19" t="str">
-        <v>1732114874</v>
+        <v>1732115385</v>
       </c>
       <c r="C19" t="str">
-        <v>Karen</v>
+        <v>fcgfch</v>
       </c>
       <c r="D19" t="str">
-        <v>dasdsa</v>
+        <v>dsf</v>
       </c>
       <c r="E19" t="str">
-        <v>k.achoyan@geeklab.am</v>
+        <v>tigranyan.design@gmail.com</v>
       </c>
       <c r="F19" t="str">
-        <v>+374 60 777 888</v>
+        <v>+37444777344</v>
       </c>
       <c r="G19" t="str">
-        <v>0000000000000000000000000000</v>
+        <v>hjkjhkhkhkyuy</v>
       </c>
       <c r="I19" t="str">
-        <v>[{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":1},{"id":365,"title":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","avatar":"uploads\/1731228946_avatar.jpg","images":null,"description":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","important":2,"variants":[{"id":19,"name":"sm","value":"28","price":300,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365},{"id":20,"name":"sm","value":"32","price":400,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365}],"quantity":1}]</v>
+        <v>[{"id":367,"title":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","avatar":"uploads\/1731229051_avatar.jpg","images":null,"description":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":21,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","product_id":367}],"quantity":1},{"id":368,"title":"\u0413\u0430\u0439\u0434\u0443\u043b\u044f\u043d\u043e","avatar":"uploads\/1731229095_avatar.jpg","images":null,"description":"\u0413\u0430\u0439\u0434\u0443\u043b\u044f\u043d\u043e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:58:15.000000Z","updated_at":"2024-11-10T12:58:15.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":22,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:58:15.000000Z","updated_at":"2024-11-10T12:58:15.000000Z","product_id":368},{"id":23,"name":"sm","value":"28","price":200,"created_at":"2024-11-10T12:58:15.000000Z","updated_at":"2024-11-10T12:58:15.000000Z","product_id":368}],"quantity":1}]</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="L19" t="str">
-        <v>2024-11-20T19:01:14.000000Z</v>
+        <v>2024-11-20T19:09:45.000000Z</v>
       </c>
       <c r="M19" t="str">
-        <v>2024-11-20T19:01:14.000000Z</v>
+        <v>2024-11-20T19:09:45.000000Z</v>
       </c>
       <c r="N19" t="str">
-        <v>Yeghbayrutyan19</v>
+        <v>dfgdgd</v>
       </c>
       <c r="O19" t="str">
         <v>Russia</v>
       </c>
       <c r="P19">
-        <v>900</v>
+        <v>760</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1304,46 +1304,46 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B20" t="str">
-        <v>1732114807</v>
+        <v>1732114874</v>
       </c>
       <c r="C20" t="str">
-        <v>Yervand</v>
+        <v>Karen</v>
       </c>
       <c r="D20" t="str">
-        <v>Aghabekyan</v>
+        <v>dasdsa</v>
       </c>
       <c r="E20" t="str">
-        <v>vip.ervand.88@gmail.com</v>
+        <v>k.achoyan@geeklab.am</v>
       </c>
       <c r="F20" t="str">
-        <v>+37494347407</v>
+        <v>+374 60 777 888</v>
       </c>
       <c r="G20" t="str">
-        <v>54t45t4545yt4</v>
+        <v>0000000000000000000000000000</v>
       </c>
       <c r="I20" t="str">
-        <v>[{"id":365,"title":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","avatar":"uploads\/1731228946_avatar.jpg","images":null,"description":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":19,"name":"sm","value":"28","price":300,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365},{"id":20,"name":"sm","value":"32","price":400,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365}],"quantity":1}]</v>
+        <v>[{"id":363,"title":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","avatar":"uploads\/1731228800_avatar.png","images":null,"description":"\u041e\u0434\u0438\u043d \u0440\u0430\u0432\u043d\u043e \u0447\u0435\u0442\u044b\u0440\u0435","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","important":2,"variants":[{"id":18,"name":"sm","value":"34","price":200,"created_at":"2024-11-10T12:53:20.000000Z","updated_at":"2024-11-10T12:53:20.000000Z","product_id":363}],"quantity":1},{"id":365,"title":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","avatar":"uploads\/1731228946_avatar.jpg","images":null,"description":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","important":2,"variants":[{"id":19,"name":"sm","value":"28","price":300,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365},{"id":20,"name":"sm","value":"32","price":400,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365}],"quantity":1}]</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="L20" t="str">
-        <v>2024-11-20T19:00:07.000000Z</v>
+        <v>2024-11-20T19:01:14.000000Z</v>
       </c>
       <c r="M20" t="str">
-        <v>2024-11-20T19:00:07.000000Z</v>
+        <v>2024-11-20T19:01:14.000000Z</v>
       </c>
       <c r="N20" t="str">
-        <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
+        <v>Yeghbayrutyan19</v>
       </c>
       <c r="O20" t="str">
         <v>Russia</v>
       </c>
       <c r="P20">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B21" t="str">
-        <v>1732112167</v>
+        <v>1732114807</v>
       </c>
       <c r="C21" t="str">
         <v>Yervand</v>
@@ -1369,19 +1369,19 @@
         <v>+37494347407</v>
       </c>
       <c r="G21" t="str">
-        <v>ukjuikuiok,uk,iu</v>
+        <v>54t45t4545yt4</v>
       </c>
       <c r="I21" t="str">
-        <v>[{"id":369,"title":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","avatar":"uploads\/1731229315_avatar.jpg","images":null,"description":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","category_id":"[60]","blog_id":65,"status":1,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","important":1,"variants":[{"id":24,"name":"sht","value":"1","price":580,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","product_id":369}],"quantity":1}]</v>
+        <v>[{"id":365,"title":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","avatar":"uploads\/1731228946_avatar.jpg","images":null,"description":"\u0411\u0430\u0440\u0431\u0435\u043a\u044e","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","important":2,"blog":{"id":64,"title":"Pizza","title_en":"Pizza","title_ru":"Pizza","content":"&lt;p&gt;aaaa&lt;\/p&gt;","content_en":"&lt;p&gt;aaa&lt;\/p&gt;","content_ru":"&lt;p&gt;aaa&lt;\/p&gt;","created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z","qrs":{"id":64,"image":"qrcodes\/64_qrcode.svg","blog_id":64,"created_at":"2024-11-07T17:16:19.000000Z","updated_at":"2024-11-07T17:16:19.000000Z"}},"variants":[{"id":19,"name":"sm","value":"28","price":300,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365},{"id":20,"name":"sm","value":"32","price":400,"created_at":"2024-11-10T12:55:46.000000Z","updated_at":"2024-11-10T12:55:46.000000Z","product_id":365}],"quantity":1}]</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="L21" t="str">
-        <v>2024-11-20T18:16:07.000000Z</v>
+        <v>2024-11-20T19:00:07.000000Z</v>
       </c>
       <c r="M21" t="str">
-        <v>2024-11-20T18:16:07.000000Z</v>
+        <v>2024-11-20T19:00:07.000000Z</v>
       </c>
       <c r="N21" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -1390,7 +1390,7 @@
         <v>Russia</v>
       </c>
       <c r="P21">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B22" t="str">
-        <v>1732107899</v>
+        <v>1732112167</v>
       </c>
       <c r="C22" t="str">
         <v>Yervand</v>
@@ -1416,19 +1416,19 @@
         <v>+37494347407</v>
       </c>
       <c r="G22" t="str">
-        <v>ghjgjmghjmgh</v>
+        <v>ukjuikuiok,uk,iu</v>
       </c>
       <c r="I22" t="str">
-        <v>[{"id":367,"title":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","avatar":"uploads\/1731229051_avatar.jpg","images":null,"description":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","important":2,"variants":[{"id":21,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","product_id":367}],"quantity":4}]</v>
+        <v>[{"id":369,"title":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","avatar":"uploads\/1731229315_avatar.jpg","images":null,"description":"\u0424\u0438\u043b\u0430\u0434\u0435\u043b\u044c\u0444\u0438\u044f \u043a\u043b\u0430\u0441\u0441\u0438\u043a","category_id":"[60]","blog_id":65,"status":1,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","important":1,"variants":[{"id":24,"name":"sht","value":"1","price":580,"created_at":"2024-11-10T13:01:55.000000Z","updated_at":"2024-11-10T13:01:55.000000Z","product_id":369}],"quantity":1}]</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22" t="str">
-        <v>2024-11-20T17:04:59.000000Z</v>
+        <v>2024-11-20T18:16:07.000000Z</v>
       </c>
       <c r="M22" t="str">
-        <v>2024-11-20T17:04:59.000000Z</v>
+        <v>2024-11-20T18:16:07.000000Z</v>
       </c>
       <c r="N22" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -1437,7 +1437,7 @@
         <v>Russia</v>
       </c>
       <c r="P22">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1445,10 +1445,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B23" t="str">
-        <v>1732097679</v>
+        <v>1732107899</v>
       </c>
       <c r="C23" t="str">
         <v>Yervand</v>
@@ -1463,19 +1463,19 @@
         <v>+37494347407</v>
       </c>
       <c r="G23" t="str">
-        <v>dsasadsadasad</v>
+        <v>ghjgjmghjmgh</v>
       </c>
       <c r="I23" t="str">
-        <v>[{"id":367,"title":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","avatar":"uploads\/1731229051_avatar.jpg","images":null,"description":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","important":2,"variants":[{"id":21,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","product_id":367}],"quantity":1}]</v>
+        <v>[{"id":367,"title":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","avatar":"uploads\/1731229051_avatar.jpg","images":null,"description":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","important":2,"variants":[{"id":21,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","product_id":367}],"quantity":4}]</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23" t="str">
-        <v>2024-11-20T14:14:39.000000Z</v>
+        <v>2024-11-20T17:04:59.000000Z</v>
       </c>
       <c r="M23" t="str">
-        <v>2024-11-20T14:14:39.000000Z</v>
+        <v>2024-11-20T17:04:59.000000Z</v>
       </c>
       <c r="N23" t="str">
         <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
@@ -1490,9 +1490,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24">
+        <v>329</v>
+      </c>
+      <c r="B24" t="str">
+        <v>1732097679</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Yervand</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Aghabekyan</v>
+      </c>
+      <c r="E24" t="str">
+        <v>vip.ervand.88@gmail.com</v>
+      </c>
+      <c r="F24" t="str">
+        <v>+37494347407</v>
+      </c>
+      <c r="G24" t="str">
+        <v>dsasadsadasad</v>
+      </c>
+      <c r="I24" t="str">
+        <v>[{"id":367,"title":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","avatar":"uploads\/1731229051_avatar.jpg","images":null,"description":"\u0412\u0435\u0433\u0435\u0442\u0430\u0440\u0438\u0430\u043d\u0441\u043a\u0430\u044f","category_id":"[57]","blog_id":64,"status":1,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","important":2,"variants":[{"id":21,"name":"sm","value":"30","price":280,"created_at":"2024-11-10T12:57:31.000000Z","updated_at":"2024-11-10T12:57:31.000000Z","product_id":367}],"quantity":1}]</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <v>2024-11-20T14:14:39.000000Z</v>
+      </c>
+      <c r="M24" t="str">
+        <v>2024-11-20T14:14:39.000000Z</v>
+      </c>
+      <c r="N24" t="str">
+        <v>ՀԱՂԹԱՆԱԿ ԹՂՄ. 2 Փ.</v>
+      </c>
+      <c r="O24" t="str">
+        <v>Russia</v>
+      </c>
+      <c r="P24">
+        <v>280</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q24"/>
   </ignoredErrors>
 </worksheet>
 </file>